--- a/data/IBGE/Percentuais.xlsx
+++ b/data/IBGE/Percentuais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carrefour\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dca3508b15c96f8f/- Geral^MWork/Consultorias/Projeto Luan e Luiz de Alimentação Infantil/GIT/Projeto-Alimentacao-Infantil/data/IBGE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F4D770-6217-4DA6-AD26-3E30F640D732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{68F4D770-6217-4DA6-AD26-3E30F640D732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E541F44-16D5-4728-898B-3201353E6E8F}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{3FC19C5C-3B0F-4B0B-9896-2B90EA48ED9F}"/>
+    <workbookView xWindow="-19155" yWindow="2295" windowWidth="19290" windowHeight="11505" activeTab="1" xr2:uid="{3FC19C5C-3B0F-4B0B-9896-2B90EA48ED9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Percentuais" sheetId="7" r:id="rId1"/>
@@ -20,10 +20,20 @@
     <sheet name="Quilogramas" sheetId="3" r:id="rId5"/>
     <sheet name="Mil dúzias" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -267,14 +277,14 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -596,7 +606,7 @@
   </sheetPr>
   <dimension ref="A2:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -613,7 +623,7 @@
       <c r="B2" s="6">
         <v>4189553</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <f>$B2/$B$13</f>
         <v>0.860708707973314</v>
       </c>
@@ -647,13 +657,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>11126</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <f t="shared" si="0"/>
         <v>2.2857438693128099E-3</v>
       </c>
@@ -683,13 +693,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>242146</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <f t="shared" si="0"/>
         <v>4.97468753351267E-2</v>
       </c>
@@ -722,38 +732,38 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>33246</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <f t="shared" si="0"/>
         <v>6.8301133092911808E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>11098</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <f t="shared" si="0"/>
         <v>2.2799915029330904E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="1">
         <f>SUM(B2:B12)</f>
         <v>4867562</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -771,7 +781,7 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -796,10 +806,10 @@
       <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="13"/>
       <c r="I2" s="4" t="s">
         <v>34</v>
       </c>
@@ -841,10 +851,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="4" t="s">
         <v>32</v>
       </c>
@@ -866,10 +876,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="4" t="s">
         <v>38</v>
       </c>
@@ -891,10 +901,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="13"/>
       <c r="I14" s="4" t="s">
         <v>40</v>
       </c>
@@ -937,10 +947,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,7 +960,7 @@
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -958,19 +968,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I3" s="2" t="s">
         <v>21</v>
       </c>
@@ -978,7 +988,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I4" s="2">
         <v>1</v>
       </c>
@@ -986,13 +996,13 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I7" s="8" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1000,12 +1010,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" s="2">
         <v>1000000</v>
+      </c>
+      <c r="K9">
+        <f>J9/1000</f>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -1049,10 +1063,10 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="8"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I3" s="2" t="s">
@@ -1071,10 +1085,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I7" s="2" t="s">
@@ -1146,7 +1160,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,10 +1184,10 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="13"/>
       <c r="J2" s="4" t="s">
         <v>42</v>
       </c>
@@ -1201,10 +1215,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="8"/>
+      <c r="I7" s="13"/>
       <c r="J7" s="4" t="s">
         <v>33</v>
       </c>
